--- a/Threagile_fullrun/tags.xlsx
+++ b/Threagile_fullrun/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Element</t>
   </si>
@@ -106,10 +106,19 @@
     <t>WC1</t>
   </si>
   <si>
+    <t>WC1-to-S3</t>
+  </si>
+  <si>
     <t>WC2</t>
   </si>
   <si>
+    <t>WC2-to-S3</t>
+  </si>
+  <si>
     <t>WC3</t>
+  </si>
+  <si>
+    <t>WC3-to-S3</t>
   </si>
   <si>
     <t>erp-data</t>
@@ -787,9 +796,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -811,9 +818,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -823,36 +828,32 @@
         <v>33</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
@@ -862,20 +863,20 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
@@ -887,12 +888,50 @@
         <v>38</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/Threagile_fullrun/tags.xlsx
+++ b/Threagile_fullrun/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Element</t>
   </si>
@@ -34,10 +34,19 @@
     <t>secure-zone</t>
   </si>
   <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>C1-to-FW1</t>
+  </si>
+  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>X</t>
+    <t>C2-to-R1</t>
   </si>
   <si>
     <t>DC1</t>
@@ -52,21 +61,48 @@
     <t>FW1</t>
   </si>
   <si>
+    <t>FW1-to-S0</t>
+  </si>
+  <si>
     <t>FW2</t>
   </si>
   <si>
+    <t>FW2-to-FW3</t>
+  </si>
+  <si>
     <t>FW3</t>
   </si>
   <si>
+    <t>FW3-to-WC3</t>
+  </si>
+  <si>
+    <t>FW3-to-WC2</t>
+  </si>
+  <si>
+    <t>FW3-to-WC1</t>
+  </si>
+  <si>
+    <t>FW3-to-FW4</t>
+  </si>
+  <si>
     <t>FW4</t>
   </si>
   <si>
+    <t>FW4-to-S3</t>
+  </si>
+  <si>
+    <t>FW4-to-FW3</t>
+  </si>
+  <si>
     <t>OS1</t>
   </si>
   <si>
     <t>R1</t>
   </si>
   <si>
+    <t>R1-to-FW4</t>
+  </si>
+  <si>
     <t>R2</t>
   </si>
   <si>
@@ -79,6 +115,9 @@
     <t>S0</t>
   </si>
   <si>
+    <t>S0-to-FW2</t>
+  </si>
+  <si>
     <t>S1</t>
   </si>
   <si>
@@ -106,19 +145,19 @@
     <t>WC1</t>
   </si>
   <si>
-    <t>WC1-to-S3</t>
+    <t>WC1-to-FW3</t>
   </si>
   <si>
     <t>WC2</t>
   </si>
   <si>
-    <t>WC2-to-S3</t>
+    <t>WC2-to-FW3</t>
   </si>
   <si>
     <t>WC3</t>
   </si>
   <si>
-    <t>WC3-to-S3</t>
+    <t>WC3-to-FW3</t>
   </si>
   <si>
     <t>erp-data</t>
@@ -532,9 +571,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -544,10 +581,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -557,9 +594,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
@@ -568,12 +603,12 @@
         <v>11</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -581,11 +616,11 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -593,11 +628,11 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -605,9 +640,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -619,9 +652,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
@@ -631,11 +662,11 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -643,9 +674,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
@@ -655,11 +684,11 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -667,9 +696,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
@@ -677,9 +704,7 @@
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -700,9 +725,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -717,7 +740,9 @@
         <v>7</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -727,18 +752,14 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -748,10 +769,10 @@
         <v>26</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
@@ -760,10 +781,10 @@
         <v>27</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
@@ -773,9 +794,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
@@ -784,10 +803,10 @@
         <v>29</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
@@ -797,7 +816,9 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
@@ -806,10 +827,10 @@
         <v>31</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
@@ -817,7 +838,9 @@
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -828,9 +851,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -863,19 +884,17 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -888,10 +907,10 @@
         <v>38</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
@@ -900,10 +919,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
@@ -912,26 +931,178 @@
         <v>40</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/Threagile_fullrun/tags.xlsx
+++ b/Threagile_fullrun/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Element</t>
   </si>
@@ -58,6 +58,9 @@
     <t>ES1</t>
   </si>
   <si>
+    <t>ES1-to-R2</t>
+  </si>
+  <si>
     <t>FW1</t>
   </si>
   <si>
@@ -88,9 +91,15 @@
     <t>FW4</t>
   </si>
   <si>
+    <t>FW4-to-S4</t>
+  </si>
+  <si>
     <t>FW4-to-S3</t>
   </si>
   <si>
+    <t>FW4-to-R2</t>
+  </si>
+  <si>
     <t>FW4-to-FW3</t>
   </si>
   <si>
@@ -106,12 +115,27 @@
     <t>R2</t>
   </si>
   <si>
+    <t>R2-to-S1</t>
+  </si>
+  <si>
+    <t>R2-to-ES1</t>
+  </si>
+  <si>
     <t>R3</t>
   </si>
   <si>
+    <t>R3-to-R4</t>
+  </si>
+  <si>
     <t>R4</t>
   </si>
   <si>
+    <t>R4-to-TI2</t>
+  </si>
+  <si>
+    <t>R4-to-TI1</t>
+  </si>
+  <si>
     <t>S0</t>
   </si>
   <si>
@@ -121,6 +145,9 @@
     <t>S1</t>
   </si>
   <si>
+    <t>S1-to-R3</t>
+  </si>
+  <si>
     <t>S2</t>
   </si>
   <si>
@@ -130,16 +157,19 @@
     <t>S4</t>
   </si>
   <si>
+    <t>S4-to-FW4</t>
+  </si>
+  <si>
     <t>S5</t>
   </si>
   <si>
     <t>S6</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
+    <t>TI1</t>
+  </si>
+  <si>
+    <t>TI2</t>
   </si>
   <si>
     <t>WC1</t>
@@ -642,9 +672,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -654,7 +682,9 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -664,9 +694,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -676,7 +704,9 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -686,9 +716,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -698,7 +726,9 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -736,13 +766,9 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -750,9 +776,13 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -770,9 +800,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
@@ -781,9 +809,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -815,10 +841,10 @@
         <v>30</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
@@ -828,9 +854,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
@@ -838,11 +862,11 @@
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
@@ -871,10 +895,10 @@
         <v>35</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
@@ -884,9 +908,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
@@ -896,20 +918,18 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -919,9 +939,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -930,11 +948,11 @@
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
@@ -944,9 +962,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
@@ -955,9 +971,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -990,7 +1004,9 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
@@ -999,12 +1015,12 @@
         <v>46</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -1033,26 +1049,24 @@
         <v>49</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
@@ -1071,10 +1085,10 @@
         <v>52</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
@@ -1083,14 +1097,10 @@
         <v>53</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
@@ -1103,6 +1113,126 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/Threagile_fullrun/tags.xlsx
+++ b/Threagile_fullrun/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Element</t>
   </si>
@@ -157,7 +157,22 @@
     <t>S4</t>
   </si>
   <si>
+    <t>S4-to-S6</t>
+  </si>
+  <si>
+    <t>S4-to-S5</t>
+  </si>
+  <si>
+    <t>S4-to-S3</t>
+  </si>
+  <si>
+    <t>S4-to-S2</t>
+  </si>
+  <si>
     <t>S4-to-FW4</t>
+  </si>
+  <si>
+    <t>S4-to-DC1</t>
   </si>
   <si>
     <t>S5</t>
@@ -1037,9 +1052,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1049,9 +1062,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1062,9 +1073,7 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
@@ -1074,9 +1083,7 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
@@ -1085,9 +1092,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1097,7 +1102,9 @@
         <v>53</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1120,7 +1127,9 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
@@ -1129,10 +1138,10 @@
         <v>56</v>
       </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
@@ -1141,7 +1150,9 @@
         <v>57</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1151,9 +1162,7 @@
         <v>58</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -1163,36 +1172,32 @@
         <v>59</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
@@ -1202,9 +1207,7 @@
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
@@ -1218,21 +1221,83 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/Threagile_fullrun/tags.xlsx
+++ b/Threagile_fullrun/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Element</t>
   </si>
@@ -157,22 +157,7 @@
     <t>S4</t>
   </si>
   <si>
-    <t>S4-to-S6</t>
-  </si>
-  <si>
-    <t>S4-to-S5</t>
-  </si>
-  <si>
-    <t>S4-to-S3</t>
-  </si>
-  <si>
-    <t>S4-to-S2</t>
-  </si>
-  <si>
     <t>S4-to-FW4</t>
-  </si>
-  <si>
-    <t>S4-to-DC1</t>
   </si>
   <si>
     <t>S5</t>
@@ -1052,7 +1037,9 @@
         <v>48</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1062,7 +1049,9 @@
         <v>49</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1073,7 +1062,9 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
@@ -1083,7 +1074,9 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
@@ -1092,7 +1085,9 @@
         <v>52</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1102,9 +1097,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1127,9 +1120,7 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
@@ -1138,10 +1129,10 @@
         <v>56</v>
       </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
@@ -1150,9 +1141,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1162,7 +1151,9 @@
         <v>58</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -1172,32 +1163,36 @@
         <v>59</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
@@ -1207,7 +1202,9 @@
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
@@ -1221,83 +1218,21 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/Threagile_fullrun/tags.xlsx
+++ b/Threagile_fullrun/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Element</t>
   </si>
@@ -106,6 +106,9 @@
     <t>OS1</t>
   </si>
   <si>
+    <t>OS1-to-R2</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
@@ -115,15 +118,24 @@
     <t>R2</t>
   </si>
   <si>
+    <t>R2-to-S1-(MIS)</t>
+  </si>
+  <si>
     <t>R2-to-S1</t>
   </si>
   <si>
+    <t>R2-to-OS1</t>
+  </si>
+  <si>
     <t>R2-to-ES1</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
+    <t>R3-to-R4-(MIS)</t>
+  </si>
+  <si>
     <t>R3-to-R4</t>
   </si>
   <si>
@@ -145,6 +157,9 @@
     <t>S1</t>
   </si>
   <si>
+    <t>S1-to-R3-(MIS)</t>
+  </si>
+  <si>
     <t>S1-to-R3</t>
   </si>
   <si>
@@ -152,6 +167,9 @@
   </si>
   <si>
     <t>S3</t>
+  </si>
+  <si>
+    <t>S3-to-FW4</t>
   </si>
   <si>
     <t>S4</t>
@@ -856,9 +874,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -868,7 +884,9 @@
         <v>31</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -879,9 +897,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
@@ -891,7 +907,9 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
@@ -911,9 +929,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
@@ -933,9 +949,7 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
@@ -945,7 +959,9 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
@@ -963,9 +979,7 @@
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -977,7 +991,9 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
@@ -1005,10 +1021,10 @@
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1019,9 +1035,7 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
@@ -1033,9 +1047,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -1062,7 +1074,9 @@
         <v>49</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1073,7 +1087,9 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
@@ -1095,16 +1111,16 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1114,9 +1130,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1127,9 +1141,7 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
@@ -1139,9 +1151,7 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
@@ -1150,9 +1160,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1184,7 +1192,9 @@
         <v>60</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -1194,10 +1204,10 @@
         <v>61</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
@@ -1207,7 +1217,9 @@
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
@@ -1230,24 +1242,20 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
@@ -1255,9 +1263,7 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
@@ -1266,10 +1272,10 @@
         <v>67</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
@@ -1278,14 +1284,10 @@
         <v>68</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
@@ -1298,6 +1300,82 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/Threagile_fullrun/tags.xlsx
+++ b/Threagile_fullrun/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Element</t>
   </si>
@@ -52,9 +52,15 @@
     <t>DC1</t>
   </si>
   <si>
+    <t>DC1-to-NTP</t>
+  </si>
+  <si>
     <t>DC2</t>
   </si>
   <si>
+    <t>DC2-to-DC1</t>
+  </si>
+  <si>
     <t>ES1</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>FW4-to-FW3</t>
   </si>
   <si>
+    <t>NTP</t>
+  </si>
+  <si>
     <t>OS1</t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t>R2-to-ES1</t>
   </si>
   <si>
+    <t>R2-to-DC2-NTP</t>
+  </si>
+  <si>
     <t>R3</t>
   </si>
   <si>
@@ -163,15 +175,24 @@
     <t>S1-to-R3</t>
   </si>
   <si>
+    <t>S1-to-R2-NTP</t>
+  </si>
+  <si>
     <t>S2</t>
   </si>
   <si>
+    <t>S2-to-DC1</t>
+  </si>
+  <si>
     <t>S3</t>
   </si>
   <si>
     <t>S3-to-FW4</t>
   </si>
   <si>
+    <t>S3-to-DC1</t>
+  </si>
+  <si>
     <t>S4</t>
   </si>
   <si>
@@ -190,13 +211,22 @@
     <t>S4-to-FW4</t>
   </si>
   <si>
+    <t>S4-to-DC1-NTP</t>
+  </si>
+  <si>
     <t>S4-to-DC1</t>
   </si>
   <si>
     <t>S5</t>
   </si>
   <si>
+    <t>S5-to-DC1</t>
+  </si>
+  <si>
     <t>S6</t>
+  </si>
+  <si>
+    <t>S6-to-DC1</t>
   </si>
   <si>
     <t>TI1</t>
@@ -679,9 +709,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
@@ -713,11 +741,11 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -781,7 +809,9 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -809,13 +839,9 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -833,9 +859,13 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -863,9 +893,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
@@ -884,12 +912,12 @@
         <v>31</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -897,7 +925,9 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
@@ -907,9 +937,7 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
@@ -918,7 +946,9 @@
         <v>34</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -939,7 +969,9 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
@@ -959,9 +991,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
@@ -991,9 +1021,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
@@ -1003,7 +1031,9 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
@@ -1021,9 +1051,7 @@
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1035,7 +1063,9 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
@@ -1063,7 +1093,9 @@
       <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1074,9 +1106,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1087,9 +1117,7 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
@@ -1111,9 +1139,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
@@ -1130,7 +1156,9 @@
         <v>54</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1151,7 +1179,9 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
@@ -1180,21 +1210,19 @@
         <v>59</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -1205,9 +1233,7 @@
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
@@ -1217,9 +1243,7 @@
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
@@ -1228,9 +1252,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -1250,9 +1272,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1308,24 +1328,20 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
@@ -1344,10 +1360,10 @@
         <v>73</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
@@ -1356,14 +1372,10 @@
         <v>74</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
@@ -1376,6 +1388,126 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/Threagile_fullrun/tags.xlsx
+++ b/Threagile_fullrun/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Element</t>
   </si>
@@ -55,6 +55,9 @@
     <t>DC1-to-NTP</t>
   </si>
   <si>
+    <t>DC1-to-FW4</t>
+  </si>
+  <si>
     <t>DC2</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>FW4-to-S3</t>
   </si>
   <si>
+    <t>FW4-to-R2-Admin</t>
+  </si>
+  <si>
     <t>FW4-to-R2</t>
   </si>
   <si>
@@ -127,13 +133,22 @@
     <t>R2</t>
   </si>
   <si>
+    <t>R2-to-S1-Admin</t>
+  </si>
+  <si>
     <t>R2-to-S1-(MIS)</t>
   </si>
   <si>
     <t>R2-to-S1</t>
   </si>
   <si>
+    <t>R2-to-OS1-Admin</t>
+  </si>
+  <si>
     <t>R2-to-OS1</t>
+  </si>
+  <si>
+    <t>R2-to-ES1-Admin</t>
   </si>
   <si>
     <t>R2-to-ES1</t>
@@ -719,9 +734,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
@@ -731,7 +744,9 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
@@ -741,9 +756,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
@@ -753,7 +766,9 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
@@ -765,9 +780,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -777,7 +790,9 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -787,9 +802,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -799,7 +812,9 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -809,9 +824,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -821,7 +834,9 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -859,13 +874,9 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -873,9 +884,13 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -915,9 +930,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -925,9 +938,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
@@ -939,17 +950,19 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
@@ -968,10 +981,10 @@
         <v>36</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
@@ -991,7 +1004,9 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
@@ -1031,9 +1046,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
@@ -1063,9 +1076,7 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
@@ -1085,7 +1096,9 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
@@ -1093,9 +1106,7 @@
       <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1117,7 +1128,9 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
@@ -1145,7 +1158,9 @@
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1156,9 +1171,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1179,9 +1192,7 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
@@ -1210,12 +1221,12 @@
         <v>59</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
@@ -1233,7 +1244,9 @@
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
@@ -1265,7 +1278,9 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
@@ -1292,9 +1307,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -1314,9 +1327,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -1337,9 +1348,7 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
@@ -1348,10 +1357,10 @@
         <v>72</v>
       </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
@@ -1360,9 +1369,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -1372,7 +1379,9 @@
         <v>74</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -1382,9 +1391,7 @@
         <v>75</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -1395,7 +1402,9 @@
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
@@ -1404,10 +1413,10 @@
         <v>77</v>
       </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
@@ -1416,7 +1425,9 @@
         <v>78</v>
       </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -1426,9 +1437,7 @@
         <v>79</v>
       </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -1438,36 +1447,32 @@
         <v>80</v>
       </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
@@ -1477,9 +1482,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
@@ -1493,21 +1496,83 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>
